--- a/Bin_data/Burley/Burley57.xlsx
+++ b/Bin_data/Burley/Burley57.xlsx
@@ -374,7 +374,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BD32"/>
+  <dimension ref="A1:BD35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -892,7 +892,7 @@
     </row>
     <row r="4" spans="1:56">
       <c r="A4" s="1">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1057,12 +1057,12 @@
         <v>0</v>
       </c>
       <c r="BD4">
-        <v>0.5957678548800001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:56">
       <c r="A5" s="1">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1173,7 +1173,7 @@
         <v>0</v>
       </c>
       <c r="AL5">
-        <v>0.08539394352</v>
+        <v>0</v>
       </c>
       <c r="AM5">
         <v>0</v>
@@ -1227,12 +1227,12 @@
         <v>0</v>
       </c>
       <c r="BD5">
-        <v>0</v>
+        <v>0.5957678548800001</v>
       </c>
     </row>
     <row r="6" spans="1:56">
       <c r="A6" s="1">
-        <v>0.18</v>
+        <v>0.15</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.10930938804</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.10580774268</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1343,7 +1343,7 @@
         <v>0</v>
       </c>
       <c r="AL6">
-        <v>0</v>
+        <v>0.08539394352</v>
       </c>
       <c r="AM6">
         <v>0</v>
@@ -1364,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.05567548632</v>
+        <v>0</v>
       </c>
       <c r="AT6">
         <v>0</v>
@@ -1402,7 +1402,7 @@
     </row>
     <row r="7" spans="1:56">
       <c r="A7" s="1">
-        <v>0.21</v>
+        <v>0.18</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1414,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.10930938804</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.10580774268</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1495,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>0.12072018912</v>
+        <v>0</v>
       </c>
       <c r="AG7">
         <v>0</v>
@@ -1534,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>0</v>
+        <v>0.05567548632</v>
       </c>
       <c r="AT7">
         <v>0</v>
@@ -1572,7 +1572,7 @@
     </row>
     <row r="8" spans="1:56">
       <c r="A8" s="1">
-        <v>0.24</v>
+        <v>0.21</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1665,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="AF8">
-        <v>0</v>
+        <v>0.12072018912</v>
       </c>
       <c r="AG8">
         <v>0</v>
@@ -1674,7 +1674,7 @@
         <v>0</v>
       </c>
       <c r="AI8">
-        <v>0.06554579135999999</v>
+        <v>0</v>
       </c>
       <c r="AJ8">
         <v>0</v>
@@ -1683,7 +1683,7 @@
         <v>0</v>
       </c>
       <c r="AL8">
-        <v>0.05344498392</v>
+        <v>0</v>
       </c>
       <c r="AM8">
         <v>0</v>
@@ -1742,7 +1742,7 @@
     </row>
     <row r="9" spans="1:56">
       <c r="A9" s="1">
-        <v>0.27</v>
+        <v>0.24</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1844,7 +1844,7 @@
         <v>0</v>
       </c>
       <c r="AI9">
-        <v>0</v>
+        <v>0.06554579135999999</v>
       </c>
       <c r="AJ9">
         <v>0</v>
@@ -1853,7 +1853,7 @@
         <v>0</v>
       </c>
       <c r="AL9">
-        <v>0.05835961272</v>
+        <v>0.05344498392</v>
       </c>
       <c r="AM9">
         <v>0</v>
@@ -1877,7 +1877,7 @@
         <v>0</v>
       </c>
       <c r="AT9">
-        <v>0.10440560196</v>
+        <v>0</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -1912,7 +1912,7 @@
     </row>
     <row r="10" spans="1:56">
       <c r="A10" s="1">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1972,7 +1972,7 @@
         <v>0</v>
       </c>
       <c r="U10">
-        <v>0.4621755868799999</v>
+        <v>0</v>
       </c>
       <c r="V10">
         <v>0</v>
@@ -2017,13 +2017,13 @@
         <v>0</v>
       </c>
       <c r="AJ10">
-        <v>0.08333620548000001</v>
+        <v>0</v>
       </c>
       <c r="AK10">
         <v>0</v>
       </c>
       <c r="AL10">
-        <v>0.14302338756</v>
+        <v>0.05835961272</v>
       </c>
       <c r="AM10">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="AT10">
-        <v>0</v>
+        <v>0.10440560196</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -2082,7 +2082,7 @@
     </row>
     <row r="11" spans="1:56">
       <c r="A11" s="1">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2142,22 +2142,22 @@
         <v>0</v>
       </c>
       <c r="U11">
-        <v>0.3942509802</v>
+        <v>0.4621755868799999</v>
       </c>
       <c r="V11">
-        <v>0.476966274</v>
+        <v>0</v>
       </c>
       <c r="W11">
         <v>0</v>
       </c>
       <c r="X11">
-        <v>0.92687586792</v>
+        <v>0</v>
       </c>
       <c r="Y11">
-        <v>1.05008689536</v>
+        <v>0</v>
       </c>
       <c r="Z11">
-        <v>1.00374522072</v>
+        <v>0</v>
       </c>
       <c r="AA11">
         <v>0</v>
@@ -2169,31 +2169,31 @@
         <v>0</v>
       </c>
       <c r="AD11">
-        <v>0.9758909368800001</v>
+        <v>0</v>
       </c>
       <c r="AE11">
-        <v>0.8777148094799999</v>
+        <v>0</v>
       </c>
       <c r="AF11">
-        <v>1.15577769156</v>
+        <v>0</v>
       </c>
       <c r="AG11">
-        <v>1.19580066048</v>
+        <v>0</v>
       </c>
       <c r="AH11">
-        <v>0.60992197476</v>
+        <v>0</v>
       </c>
       <c r="AI11">
         <v>0</v>
       </c>
       <c r="AJ11">
-        <v>0.42634476756</v>
+        <v>0.08333620548000001</v>
       </c>
       <c r="AK11">
         <v>0</v>
       </c>
       <c r="AL11">
-        <v>0</v>
+        <v>0.14302338756</v>
       </c>
       <c r="AM11">
         <v>0</v>
@@ -2252,7 +2252,7 @@
     </row>
     <row r="12" spans="1:56">
       <c r="A12" s="1">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2309,55 +2309,55 @@
         <v>0</v>
       </c>
       <c r="T12">
-        <v>2.28577753548</v>
+        <v>0</v>
       </c>
       <c r="U12">
-        <v>3.4935418098</v>
+        <v>0.3942509802</v>
       </c>
       <c r="V12">
-        <v>2.79753638304</v>
+        <v>0.476966274</v>
       </c>
       <c r="W12">
-        <v>3.2830063368</v>
+        <v>0</v>
       </c>
       <c r="X12">
-        <v>4.6308217104</v>
+        <v>0.92687586792</v>
       </c>
       <c r="Y12">
-        <v>5.26268437164</v>
+        <v>1.05008689536</v>
       </c>
       <c r="Z12">
-        <v>6.47421986568</v>
+        <v>1.00374522072</v>
       </c>
       <c r="AA12">
-        <v>6.439929929640001</v>
+        <v>0</v>
       </c>
       <c r="AB12">
-        <v>5.80293982356</v>
+        <v>0</v>
       </c>
       <c r="AC12">
-        <v>5.50649294376</v>
+        <v>0</v>
       </c>
       <c r="AD12">
-        <v>4.19175201516</v>
+        <v>0.9758909368800001</v>
       </c>
       <c r="AE12">
-        <v>2.76977498148</v>
+        <v>0.8777148094799999</v>
       </c>
       <c r="AF12">
-        <v>1.59941831244</v>
+        <v>1.15577769156</v>
       </c>
       <c r="AG12">
-        <v>0</v>
+        <v>1.19580066048</v>
       </c>
       <c r="AH12">
-        <v>0.06204038424</v>
+        <v>0.60992197476</v>
       </c>
       <c r="AI12">
         <v>0</v>
       </c>
       <c r="AJ12">
-        <v>0</v>
+        <v>0.42634476756</v>
       </c>
       <c r="AK12">
         <v>0</v>
@@ -2422,7 +2422,7 @@
     </row>
     <row r="13" spans="1:56">
       <c r="A13" s="1">
-        <v>0.39</v>
+        <v>0.36</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2479,49 +2479,49 @@
         <v>0</v>
       </c>
       <c r="T13">
-        <v>0</v>
+        <v>2.28577753548</v>
       </c>
       <c r="U13">
-        <v>0</v>
+        <v>3.4935418098</v>
       </c>
       <c r="V13">
-        <v>0</v>
+        <v>2.79753638304</v>
       </c>
       <c r="W13">
-        <v>0</v>
+        <v>3.2830063368</v>
       </c>
       <c r="X13">
-        <v>0</v>
+        <v>4.6308217104</v>
       </c>
       <c r="Y13">
-        <v>0</v>
+        <v>5.26268437164</v>
       </c>
       <c r="Z13">
-        <v>0</v>
+        <v>6.47421986568</v>
       </c>
       <c r="AA13">
-        <v>0</v>
+        <v>6.439929929640001</v>
       </c>
       <c r="AB13">
-        <v>0</v>
+        <v>5.80293982356</v>
       </c>
       <c r="AC13">
-        <v>0</v>
+        <v>5.50649294376</v>
       </c>
       <c r="AD13">
-        <v>0</v>
+        <v>4.19175201516</v>
       </c>
       <c r="AE13">
-        <v>0</v>
+        <v>2.76977498148</v>
       </c>
       <c r="AF13">
-        <v>0</v>
+        <v>1.59941831244</v>
       </c>
       <c r="AG13">
         <v>0</v>
       </c>
       <c r="AH13">
-        <v>0</v>
+        <v>0.06204038424</v>
       </c>
       <c r="AI13">
         <v>0</v>
@@ -2533,7 +2533,7 @@
         <v>0</v>
       </c>
       <c r="AL13">
-        <v>0.13275201252</v>
+        <v>0</v>
       </c>
       <c r="AM13">
         <v>0</v>
@@ -2592,7 +2592,7 @@
     </row>
     <row r="14" spans="1:56">
       <c r="A14" s="1">
-        <v>0.42</v>
+        <v>0.39</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2619,7 +2619,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.0676367214</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -2691,7 +2691,7 @@
         <v>0</v>
       </c>
       <c r="AH14">
-        <v>0.10807691376</v>
+        <v>0</v>
       </c>
       <c r="AI14">
         <v>0</v>
@@ -2703,7 +2703,7 @@
         <v>0</v>
       </c>
       <c r="AL14">
-        <v>0</v>
+        <v>0.13275201252</v>
       </c>
       <c r="AM14">
         <v>0</v>
@@ -2762,10 +2762,10 @@
     </row>
     <row r="15" spans="1:56">
       <c r="A15" s="1">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="B15">
-        <v>0.11683285272</v>
+        <v>0</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -2789,7 +2789,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.0676367214</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -2849,7 +2849,7 @@
         <v>0</v>
       </c>
       <c r="AD15">
-        <v>1.23482853324</v>
+        <v>0</v>
       </c>
       <c r="AE15">
         <v>0</v>
@@ -2861,7 +2861,7 @@
         <v>0</v>
       </c>
       <c r="AH15">
-        <v>0</v>
+        <v>0.10807691376</v>
       </c>
       <c r="AI15">
         <v>0</v>
@@ -2932,10 +2932,10 @@
     </row>
     <row r="16" spans="1:56">
       <c r="A16" s="1">
-        <v>0.48</v>
+        <v>0.45</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>0.11683285272</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -3019,7 +3019,7 @@
         <v>0</v>
       </c>
       <c r="AD16">
-        <v>0</v>
+        <v>1.23482853324</v>
       </c>
       <c r="AE16">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="AX16">
-        <v>0.23077092048</v>
+        <v>0</v>
       </c>
       <c r="AY16">
         <v>0</v>
@@ -3102,7 +3102,7 @@
     </row>
     <row r="17" spans="1:56">
       <c r="A17" s="1">
-        <v>0.51</v>
+        <v>0.48</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -3132,7 +3132,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.09433050228000001</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -3249,13 +3249,13 @@
         <v>0</v>
       </c>
       <c r="AX17">
-        <v>0</v>
+        <v>0.23077092048</v>
       </c>
       <c r="AY17">
         <v>0</v>
       </c>
       <c r="AZ17">
-        <v>0.05473205904</v>
+        <v>0</v>
       </c>
       <c r="BA17">
         <v>0</v>
@@ -3272,7 +3272,7 @@
     </row>
     <row r="18" spans="1:56">
       <c r="A18" s="1">
-        <v>0.57</v>
+        <v>0.51</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -3302,7 +3302,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.09433050228000001</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -3389,7 +3389,7 @@
         <v>0</v>
       </c>
       <c r="AN18">
-        <v>0.06364588128</v>
+        <v>0</v>
       </c>
       <c r="AO18">
         <v>0</v>
@@ -3425,7 +3425,7 @@
         <v>0</v>
       </c>
       <c r="AZ18">
-        <v>0</v>
+        <v>0.05473205904</v>
       </c>
       <c r="BA18">
         <v>0</v>
@@ -3442,7 +3442,7 @@
     </row>
     <row r="19" spans="1:56">
       <c r="A19" s="1">
-        <v>0.6</v>
+        <v>0.54</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -3490,7 +3490,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>1.0372840218</v>
+        <v>0</v>
       </c>
       <c r="R19">
         <v>0</v>
@@ -3562,10 +3562,10 @@
         <v>0</v>
       </c>
       <c r="AO19">
-        <v>0.09071202108000001</v>
+        <v>0</v>
       </c>
       <c r="AP19">
-        <v>0.07668906492000001</v>
+        <v>0</v>
       </c>
       <c r="AQ19">
         <v>0</v>
@@ -3612,7 +3612,7 @@
     </row>
     <row r="20" spans="1:56">
       <c r="A20" s="1">
-        <v>0.63</v>
+        <v>0.57</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="AI20">
-        <v>0.05282058708</v>
+        <v>0</v>
       </c>
       <c r="AJ20">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="AN20">
-        <v>0</v>
+        <v>0.06364588128</v>
       </c>
       <c r="AO20">
         <v>0</v>
@@ -3782,7 +3782,7 @@
     </row>
     <row r="21" spans="1:56">
       <c r="A21" s="1">
-        <v>0.6599999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -3830,7 +3830,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>1.0372840218</v>
       </c>
       <c r="R21">
         <v>0</v>
@@ -3842,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="U21">
-        <v>0.37668616104</v>
+        <v>0</v>
       </c>
       <c r="V21">
         <v>0</v>
@@ -3881,10 +3881,10 @@
         <v>0</v>
       </c>
       <c r="AH21">
-        <v>0.12772054788</v>
+        <v>0</v>
       </c>
       <c r="AI21">
-        <v>0.26739856908</v>
+        <v>0</v>
       </c>
       <c r="AJ21">
         <v>0</v>
@@ -3902,13 +3902,13 @@
         <v>0</v>
       </c>
       <c r="AO21">
-        <v>0</v>
+        <v>0.09071202108000001</v>
       </c>
       <c r="AP21">
-        <v>0</v>
+        <v>0.07668906492000001</v>
       </c>
       <c r="AQ21">
-        <v>0.09018000864</v>
+        <v>0</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -3952,7 +3952,7 @@
     </row>
     <row r="22" spans="1:56">
       <c r="A22" s="1">
-        <v>0.6899999999999999</v>
+        <v>0.63</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.06551232275999999</v>
+        <v>0</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         <v>0</v>
       </c>
       <c r="AE22">
-        <v>0.16412575476</v>
+        <v>0</v>
       </c>
       <c r="AF22">
         <v>0</v>
@@ -4054,7 +4054,7 @@
         <v>0</v>
       </c>
       <c r="AI22">
-        <v>0</v>
+        <v>0.05282058708</v>
       </c>
       <c r="AJ22">
         <v>0</v>
@@ -4117,12 +4117,12 @@
         <v>0</v>
       </c>
       <c r="BD22">
-        <v>0.16638021072</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:56">
       <c r="A23" s="1">
-        <v>0.72</v>
+        <v>0.6599999999999999</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -4176,16 +4176,16 @@
         <v>0</v>
       </c>
       <c r="S23">
-        <v>0.9185948511599999</v>
+        <v>0</v>
       </c>
       <c r="T23">
-        <v>1.15419515232</v>
+        <v>0</v>
       </c>
       <c r="U23">
-        <v>1.11879201192</v>
+        <v>0.37668616104</v>
       </c>
       <c r="V23">
-        <v>1.0700564196</v>
+        <v>0</v>
       </c>
       <c r="W23">
         <v>0</v>
@@ -4221,10 +4221,10 @@
         <v>0</v>
       </c>
       <c r="AH23">
-        <v>0</v>
+        <v>0.12772054788</v>
       </c>
       <c r="AI23">
-        <v>0</v>
+        <v>0.26739856908</v>
       </c>
       <c r="AJ23">
         <v>0</v>
@@ -4248,7 +4248,7 @@
         <v>0</v>
       </c>
       <c r="AQ23">
-        <v>0</v>
+        <v>0.09018000864</v>
       </c>
       <c r="AR23">
         <v>0</v>
@@ -4292,7 +4292,7 @@
     </row>
     <row r="24" spans="1:56">
       <c r="A24" s="1">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -4304,7 +4304,7 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>0.06551232275999999</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -4346,10 +4346,10 @@
         <v>0</v>
       </c>
       <c r="S24">
-        <v>0.46979868288</v>
+        <v>0</v>
       </c>
       <c r="T24">
-        <v>0.23306116848</v>
+        <v>0</v>
       </c>
       <c r="U24">
         <v>0</v>
@@ -4382,7 +4382,7 @@
         <v>0</v>
       </c>
       <c r="AE24">
-        <v>0</v>
+        <v>0.16412575476</v>
       </c>
       <c r="AF24">
         <v>0</v>
@@ -4412,7 +4412,7 @@
         <v>0</v>
       </c>
       <c r="AO24">
-        <v>0.06553439544</v>
+        <v>0</v>
       </c>
       <c r="AP24">
         <v>0</v>
@@ -4427,7 +4427,7 @@
         <v>0</v>
       </c>
       <c r="AT24">
-        <v>0.09445181904</v>
+        <v>0</v>
       </c>
       <c r="AU24">
         <v>0</v>
@@ -4457,15 +4457,15 @@
         <v>0</v>
       </c>
       <c r="BD24">
-        <v>0</v>
+        <v>0.16638021072</v>
       </c>
     </row>
     <row r="25" spans="1:56">
       <c r="A25" s="1">
-        <v>0.78</v>
+        <v>0.72</v>
       </c>
       <c r="B25">
-        <v>0.09944870868</v>
+        <v>0</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -4516,19 +4516,19 @@
         <v>0</v>
       </c>
       <c r="S25">
-        <v>0</v>
+        <v>0.9185948511599999</v>
       </c>
       <c r="T25">
-        <v>0</v>
+        <v>1.15419515232</v>
       </c>
       <c r="U25">
-        <v>0</v>
+        <v>1.11879201192</v>
       </c>
       <c r="V25">
-        <v>0</v>
+        <v>1.0700564196</v>
       </c>
       <c r="W25">
-        <v>0.15683181276</v>
+        <v>0</v>
       </c>
       <c r="X25">
         <v>0</v>
@@ -4543,7 +4543,7 @@
         <v>0</v>
       </c>
       <c r="AB25">
-        <v>0.0875911986</v>
+        <v>0</v>
       </c>
       <c r="AC25">
         <v>0</v>
@@ -4552,7 +4552,7 @@
         <v>0</v>
       </c>
       <c r="AE25">
-        <v>0.11058130548</v>
+        <v>0</v>
       </c>
       <c r="AF25">
         <v>0</v>
@@ -4632,7 +4632,7 @@
     </row>
     <row r="26" spans="1:56">
       <c r="A26" s="1">
-        <v>0.8099999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -4656,7 +4656,7 @@
         <v>0</v>
       </c>
       <c r="I26">
-        <v>0.0682236666</v>
+        <v>0</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -4686,10 +4686,10 @@
         <v>0</v>
       </c>
       <c r="S26">
-        <v>0</v>
+        <v>0.46979868288</v>
       </c>
       <c r="T26">
-        <v>0</v>
+        <v>0.23306116848</v>
       </c>
       <c r="U26">
         <v>0</v>
@@ -4704,7 +4704,7 @@
         <v>0</v>
       </c>
       <c r="Y26">
-        <v>0.56683726512</v>
+        <v>0</v>
       </c>
       <c r="Z26">
         <v>0</v>
@@ -4713,7 +4713,7 @@
         <v>0</v>
       </c>
       <c r="AB26">
-        <v>0.30463722708</v>
+        <v>0</v>
       </c>
       <c r="AC26">
         <v>0</v>
@@ -4752,7 +4752,7 @@
         <v>0</v>
       </c>
       <c r="AO26">
-        <v>0</v>
+        <v>0.06553439544</v>
       </c>
       <c r="AP26">
         <v>0</v>
@@ -4767,7 +4767,7 @@
         <v>0</v>
       </c>
       <c r="AT26">
-        <v>0</v>
+        <v>0.09445181904</v>
       </c>
       <c r="AU26">
         <v>0</v>
@@ -4802,10 +4802,10 @@
     </row>
     <row r="27" spans="1:56">
       <c r="A27" s="1">
-        <v>0.84</v>
+        <v>0.78</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>0.09944870868</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -4868,7 +4868,7 @@
         <v>0</v>
       </c>
       <c r="W27">
-        <v>0</v>
+        <v>0.15683181276</v>
       </c>
       <c r="X27">
         <v>0</v>
@@ -4883,7 +4883,7 @@
         <v>0</v>
       </c>
       <c r="AB27">
-        <v>0</v>
+        <v>0.0875911986</v>
       </c>
       <c r="AC27">
         <v>0</v>
@@ -4892,7 +4892,7 @@
         <v>0</v>
       </c>
       <c r="AE27">
-        <v>0</v>
+        <v>0.11058130548</v>
       </c>
       <c r="AF27">
         <v>0</v>
@@ -4919,7 +4919,7 @@
         <v>0</v>
       </c>
       <c r="AN27">
-        <v>0.06160767120000001</v>
+        <v>0</v>
       </c>
       <c r="AO27">
         <v>0</v>
@@ -4961,7 +4961,7 @@
         <v>0</v>
       </c>
       <c r="BB27">
-        <v>0.15345375228</v>
+        <v>0</v>
       </c>
       <c r="BC27">
         <v>0</v>
@@ -4972,7 +4972,7 @@
     </row>
     <row r="28" spans="1:56">
       <c r="A28" s="1">
-        <v>0.87</v>
+        <v>0.8099999999999999</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -4996,7 +4996,7 @@
         <v>0</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>0.0682236666</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -5044,7 +5044,7 @@
         <v>0</v>
       </c>
       <c r="Y28">
-        <v>0</v>
+        <v>0.56683726512</v>
       </c>
       <c r="Z28">
         <v>0</v>
@@ -5053,7 +5053,7 @@
         <v>0</v>
       </c>
       <c r="AB28">
-        <v>0</v>
+        <v>0.30463722708</v>
       </c>
       <c r="AC28">
         <v>0</v>
@@ -5062,7 +5062,7 @@
         <v>0</v>
       </c>
       <c r="AE28">
-        <v>0.0397952718</v>
+        <v>0</v>
       </c>
       <c r="AF28">
         <v>0</v>
@@ -5137,12 +5137,12 @@
         <v>0</v>
       </c>
       <c r="BD28">
-        <v>0.05353692576</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:56">
       <c r="A29" s="1">
-        <v>0.8999999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -5259,13 +5259,13 @@
         <v>0</v>
       </c>
       <c r="AN29">
-        <v>0</v>
+        <v>0.06160767120000001</v>
       </c>
       <c r="AO29">
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>0.05968021176</v>
+        <v>0</v>
       </c>
       <c r="AQ29">
         <v>0</v>
@@ -5301,18 +5301,18 @@
         <v>0</v>
       </c>
       <c r="BB29">
-        <v>0</v>
+        <v>0.15345375228</v>
       </c>
       <c r="BC29">
         <v>0</v>
       </c>
       <c r="BD29">
-        <v>0.27240027156</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:56">
       <c r="A30" s="1">
-        <v>0.9299999999999999</v>
+        <v>0.87</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -5321,10 +5321,10 @@
         <v>0</v>
       </c>
       <c r="D30">
-        <v>0.13688917404</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>0.06366341772</v>
+        <v>0</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -5402,7 +5402,7 @@
         <v>0</v>
       </c>
       <c r="AE30">
-        <v>0</v>
+        <v>0.0397952718</v>
       </c>
       <c r="AF30">
         <v>0</v>
@@ -5417,7 +5417,7 @@
         <v>0</v>
       </c>
       <c r="AJ30">
-        <v>0.10005114348</v>
+        <v>0</v>
       </c>
       <c r="AK30">
         <v>0</v>
@@ -5447,7 +5447,7 @@
         <v>0</v>
       </c>
       <c r="AT30">
-        <v>0.10842211056</v>
+        <v>0</v>
       </c>
       <c r="AU30">
         <v>0</v>
@@ -5468,21 +5468,21 @@
         <v>0</v>
       </c>
       <c r="BA30">
-        <v>0.51417682944</v>
+        <v>0</v>
       </c>
       <c r="BB30">
-        <v>1.35115188876</v>
+        <v>0</v>
       </c>
       <c r="BC30">
         <v>0</v>
       </c>
       <c r="BD30">
-        <v>0.45025191408</v>
+        <v>0.05353692576</v>
       </c>
     </row>
     <row r="31" spans="1:56">
       <c r="A31" s="1">
-        <v>0.96</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -5491,7 +5491,7 @@
         <v>0</v>
       </c>
       <c r="D31">
-        <v>0.1317097284</v>
+        <v>0</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -5524,299 +5524,809 @@
         <v>0</v>
       </c>
       <c r="O31">
-        <v>1.2768752184</v>
+        <v>0</v>
       </c>
       <c r="P31">
-        <v>1.9852599888</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>1.751565351</v>
+        <v>0</v>
       </c>
       <c r="R31">
-        <v>1.09115275692</v>
+        <v>0</v>
       </c>
       <c r="S31">
-        <v>2.74563183984</v>
+        <v>0</v>
       </c>
       <c r="T31">
-        <v>3.0071611782</v>
+        <v>0</v>
       </c>
       <c r="U31">
-        <v>2.79226632324</v>
+        <v>0</v>
       </c>
       <c r="V31">
-        <v>2.70243466464</v>
+        <v>0</v>
       </c>
       <c r="W31">
-        <v>2.38763188968</v>
+        <v>0</v>
       </c>
       <c r="X31">
-        <v>2.26465967868</v>
+        <v>0</v>
       </c>
       <c r="Y31">
-        <v>2.58632130384</v>
+        <v>0</v>
       </c>
       <c r="Z31">
-        <v>2.13748829244</v>
+        <v>0</v>
       </c>
       <c r="AA31">
-        <v>1.71421090824</v>
+        <v>0</v>
       </c>
       <c r="AB31">
-        <v>1.35503441232</v>
+        <v>0</v>
       </c>
       <c r="AC31">
-        <v>1.33564381188</v>
+        <v>0</v>
       </c>
       <c r="AD31">
-        <v>1.11350574336</v>
+        <v>0</v>
       </c>
       <c r="AE31">
-        <v>0.969608853</v>
+        <v>0</v>
       </c>
       <c r="AF31">
-        <v>0.9231011630400001</v>
+        <v>0</v>
       </c>
       <c r="AG31">
-        <v>0.7427649886800001</v>
+        <v>0</v>
       </c>
       <c r="AH31">
-        <v>0.5287257681600001</v>
+        <v>0</v>
       </c>
       <c r="AI31">
-        <v>0.83981009868</v>
+        <v>0</v>
       </c>
       <c r="AJ31">
-        <v>0.804222798</v>
+        <v>0</v>
       </c>
       <c r="AK31">
-        <v>0.6864199090799999</v>
+        <v>0</v>
       </c>
       <c r="AL31">
-        <v>0.6168021231599999</v>
+        <v>0</v>
       </c>
       <c r="AM31">
-        <v>0.8510409438000001</v>
+        <v>0</v>
       </c>
       <c r="AN31">
-        <v>0.9112261165200001</v>
+        <v>0</v>
       </c>
       <c r="AO31">
-        <v>0.49122599976</v>
+        <v>0</v>
       </c>
       <c r="AP31">
-        <v>0.8899173504000001</v>
+        <v>0.05968021176</v>
       </c>
       <c r="AQ31">
-        <v>0.61788689304</v>
+        <v>0</v>
       </c>
       <c r="AR31">
-        <v>0.63960546972</v>
+        <v>0</v>
       </c>
       <c r="AS31">
-        <v>0.61347296556</v>
+        <v>0</v>
       </c>
       <c r="AT31">
-        <v>0.58856319936</v>
+        <v>0</v>
       </c>
       <c r="AU31">
-        <v>0.686857269</v>
+        <v>0</v>
       </c>
       <c r="AV31">
-        <v>0.6230396191200001</v>
+        <v>0</v>
       </c>
       <c r="AW31">
-        <v>0.6661929255600001</v>
+        <v>0</v>
       </c>
       <c r="AX31">
-        <v>0.8400483619200001</v>
+        <v>0</v>
       </c>
       <c r="AY31">
-        <v>1.16723518272</v>
+        <v>0</v>
       </c>
       <c r="AZ31">
-        <v>1.475735682</v>
+        <v>0</v>
       </c>
       <c r="BA31">
         <v>0</v>
       </c>
       <c r="BB31">
-        <v>1.93504812696</v>
+        <v>0</v>
       </c>
       <c r="BC31">
-        <v>1.13730042432</v>
+        <v>0</v>
       </c>
       <c r="BD31">
-        <v>0.08952037296</v>
+        <v>0.27240027156</v>
       </c>
     </row>
     <row r="32" spans="1:56">
       <c r="A32" s="1">
+        <v>0.9299999999999999</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0.13688917404</v>
+      </c>
+      <c r="E32">
+        <v>0.06366341772</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <v>0</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+      <c r="AA32">
+        <v>0</v>
+      </c>
+      <c r="AB32">
+        <v>0</v>
+      </c>
+      <c r="AC32">
+        <v>0</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
+      </c>
+      <c r="AF32">
+        <v>0</v>
+      </c>
+      <c r="AG32">
+        <v>0</v>
+      </c>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
+      </c>
+      <c r="AJ32">
+        <v>0.10005114348</v>
+      </c>
+      <c r="AK32">
+        <v>0</v>
+      </c>
+      <c r="AL32">
+        <v>0</v>
+      </c>
+      <c r="AM32">
+        <v>0</v>
+      </c>
+      <c r="AN32">
+        <v>0</v>
+      </c>
+      <c r="AO32">
+        <v>0</v>
+      </c>
+      <c r="AP32">
+        <v>0</v>
+      </c>
+      <c r="AQ32">
+        <v>0</v>
+      </c>
+      <c r="AR32">
+        <v>0</v>
+      </c>
+      <c r="AS32">
+        <v>0</v>
+      </c>
+      <c r="AT32">
+        <v>0.10842211056</v>
+      </c>
+      <c r="AU32">
+        <v>0</v>
+      </c>
+      <c r="AV32">
+        <v>0</v>
+      </c>
+      <c r="AW32">
+        <v>0</v>
+      </c>
+      <c r="AX32">
+        <v>0</v>
+      </c>
+      <c r="AY32">
+        <v>0</v>
+      </c>
+      <c r="AZ32">
+        <v>0</v>
+      </c>
+      <c r="BA32">
+        <v>0.51417682944</v>
+      </c>
+      <c r="BB32">
+        <v>1.35115188876</v>
+      </c>
+      <c r="BC32">
+        <v>0</v>
+      </c>
+      <c r="BD32">
+        <v>0.45025191408</v>
+      </c>
+    </row>
+    <row r="33" spans="1:56">
+      <c r="A33" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0.1317097284</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>1.2768752184</v>
+      </c>
+      <c r="P33">
+        <v>1.9852599888</v>
+      </c>
+      <c r="Q33">
+        <v>1.751565351</v>
+      </c>
+      <c r="R33">
+        <v>1.09115275692</v>
+      </c>
+      <c r="S33">
+        <v>2.74563183984</v>
+      </c>
+      <c r="T33">
+        <v>3.0071611782</v>
+      </c>
+      <c r="U33">
+        <v>2.79226632324</v>
+      </c>
+      <c r="V33">
+        <v>2.70243466464</v>
+      </c>
+      <c r="W33">
+        <v>2.38763188968</v>
+      </c>
+      <c r="X33">
+        <v>2.26465967868</v>
+      </c>
+      <c r="Y33">
+        <v>2.58632130384</v>
+      </c>
+      <c r="Z33">
+        <v>2.13748829244</v>
+      </c>
+      <c r="AA33">
+        <v>1.71421090824</v>
+      </c>
+      <c r="AB33">
+        <v>1.35503441232</v>
+      </c>
+      <c r="AC33">
+        <v>1.33564381188</v>
+      </c>
+      <c r="AD33">
+        <v>1.11350574336</v>
+      </c>
+      <c r="AE33">
+        <v>0.969608853</v>
+      </c>
+      <c r="AF33">
+        <v>0.9231011630400001</v>
+      </c>
+      <c r="AG33">
+        <v>0.7427649886800001</v>
+      </c>
+      <c r="AH33">
+        <v>0.5287257681600001</v>
+      </c>
+      <c r="AI33">
+        <v>0.83981009868</v>
+      </c>
+      <c r="AJ33">
+        <v>0.804222798</v>
+      </c>
+      <c r="AK33">
+        <v>0.6864199090799999</v>
+      </c>
+      <c r="AL33">
+        <v>0.6168021231599999</v>
+      </c>
+      <c r="AM33">
+        <v>0.8510409438000001</v>
+      </c>
+      <c r="AN33">
+        <v>0.9112261165200001</v>
+      </c>
+      <c r="AO33">
+        <v>0.49122599976</v>
+      </c>
+      <c r="AP33">
+        <v>0.8899173504000001</v>
+      </c>
+      <c r="AQ33">
+        <v>0.61788689304</v>
+      </c>
+      <c r="AR33">
+        <v>0.63960546972</v>
+      </c>
+      <c r="AS33">
+        <v>0.61347296556</v>
+      </c>
+      <c r="AT33">
+        <v>0.58856319936</v>
+      </c>
+      <c r="AU33">
+        <v>0.686857269</v>
+      </c>
+      <c r="AV33">
+        <v>0.6230396191200001</v>
+      </c>
+      <c r="AW33">
+        <v>0.6661929255600001</v>
+      </c>
+      <c r="AX33">
+        <v>0.8400483619200001</v>
+      </c>
+      <c r="AY33">
+        <v>1.16723518272</v>
+      </c>
+      <c r="AZ33">
+        <v>1.475735682</v>
+      </c>
+      <c r="BA33">
+        <v>0</v>
+      </c>
+      <c r="BB33">
+        <v>1.93504812696</v>
+      </c>
+      <c r="BC33">
+        <v>1.13730042432</v>
+      </c>
+      <c r="BD33">
+        <v>0.08952037296</v>
+      </c>
+    </row>
+    <row r="34" spans="1:56">
+      <c r="A34" s="1">
         <v>0.99</v>
       </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32">
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
         <v>0.72826030596</v>
       </c>
-      <c r="E32">
+      <c r="E34">
         <v>0.45821107908</v>
       </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32">
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
         <v>0.5326985186400001</v>
       </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32">
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
         <v>0.24734252436</v>
       </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32">
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
         <v>0.09838180716</v>
       </c>
-      <c r="M32">
-        <v>0</v>
-      </c>
-      <c r="N32">
-        <v>0</v>
-      </c>
-      <c r="O32">
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
         <v>1.65078376224</v>
       </c>
-      <c r="P32">
+      <c r="P34">
         <v>1.72470627396</v>
       </c>
-      <c r="Q32">
+      <c r="Q34">
         <v>1.67104216752</v>
       </c>
-      <c r="R32">
+      <c r="R34">
         <v>2.23243782552</v>
       </c>
-      <c r="S32">
+      <c r="S34">
         <v>0.9580330876800001</v>
       </c>
-      <c r="T32">
-        <v>0</v>
-      </c>
-      <c r="U32">
-        <v>0</v>
-      </c>
-      <c r="V32">
-        <v>0</v>
-      </c>
-      <c r="W32">
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="W34">
         <v>0.8986240545600001</v>
       </c>
-      <c r="X32">
+      <c r="X34">
         <v>0.86564420676</v>
       </c>
-      <c r="Y32">
+      <c r="Y34">
         <v>0.86815579008</v>
       </c>
-      <c r="Z32">
+      <c r="Z34">
         <v>0.67391039748</v>
       </c>
-      <c r="AA32">
+      <c r="AA34">
         <v>0.5288032714800001</v>
       </c>
-      <c r="AB32">
+      <c r="AB34">
         <v>1.02263218788</v>
       </c>
-      <c r="AC32">
+      <c r="AC34">
         <v>0.92794144176</v>
       </c>
-      <c r="AD32">
+      <c r="AD34">
         <v>0.40998404352</v>
       </c>
-      <c r="AE32">
+      <c r="AE34">
         <v>0.8421323216400001</v>
       </c>
-      <c r="AF32">
+      <c r="AF34">
         <v>0.7379129268</v>
       </c>
-      <c r="AG32">
+      <c r="AG34">
         <v>0.77630240676</v>
       </c>
-      <c r="AH32">
+      <c r="AH34">
         <v>0.28043362068</v>
       </c>
-      <c r="AI32">
+      <c r="AI34">
         <v>0.32652668724</v>
       </c>
-      <c r="AJ32">
+      <c r="AJ34">
         <v>0.3293246622</v>
       </c>
-      <c r="AK32">
+      <c r="AK34">
         <v>0.27872257308</v>
       </c>
-      <c r="AL32">
+      <c r="AL34">
         <v>0.2307068046</v>
       </c>
-      <c r="AM32">
-        <v>0</v>
-      </c>
-      <c r="AN32">
-        <v>0</v>
-      </c>
-      <c r="AO32">
-        <v>0</v>
-      </c>
-      <c r="AP32">
-        <v>0</v>
-      </c>
-      <c r="AQ32">
-        <v>0</v>
-      </c>
-      <c r="AR32">
-        <v>0</v>
-      </c>
-      <c r="AS32">
-        <v>0</v>
-      </c>
-      <c r="AT32">
-        <v>0</v>
-      </c>
-      <c r="AU32">
-        <v>0</v>
-      </c>
-      <c r="AV32">
-        <v>0</v>
-      </c>
-      <c r="AW32">
-        <v>0</v>
-      </c>
-      <c r="AX32">
-        <v>0</v>
-      </c>
-      <c r="AY32">
-        <v>0</v>
-      </c>
-      <c r="AZ32">
-        <v>0</v>
-      </c>
-      <c r="BA32">
-        <v>0</v>
-      </c>
-      <c r="BB32">
-        <v>0</v>
-      </c>
-      <c r="BC32">
-        <v>0</v>
-      </c>
-      <c r="BD32">
+      <c r="AM34">
+        <v>0</v>
+      </c>
+      <c r="AN34">
+        <v>0</v>
+      </c>
+      <c r="AO34">
+        <v>0</v>
+      </c>
+      <c r="AP34">
+        <v>0</v>
+      </c>
+      <c r="AQ34">
+        <v>0</v>
+      </c>
+      <c r="AR34">
+        <v>0</v>
+      </c>
+      <c r="AS34">
+        <v>0</v>
+      </c>
+      <c r="AT34">
+        <v>0</v>
+      </c>
+      <c r="AU34">
+        <v>0</v>
+      </c>
+      <c r="AV34">
+        <v>0</v>
+      </c>
+      <c r="AW34">
+        <v>0</v>
+      </c>
+      <c r="AX34">
+        <v>0</v>
+      </c>
+      <c r="AY34">
+        <v>0</v>
+      </c>
+      <c r="AZ34">
+        <v>0</v>
+      </c>
+      <c r="BA34">
+        <v>0</v>
+      </c>
+      <c r="BB34">
+        <v>0</v>
+      </c>
+      <c r="BC34">
+        <v>0</v>
+      </c>
+      <c r="BD34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:56">
+      <c r="A35" s="1">
+        <v>1.02</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
+      </c>
+      <c r="Y35">
+        <v>0</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+      <c r="AA35">
+        <v>0</v>
+      </c>
+      <c r="AB35">
+        <v>0</v>
+      </c>
+      <c r="AC35">
+        <v>0</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
+      </c>
+      <c r="AF35">
+        <v>0</v>
+      </c>
+      <c r="AG35">
+        <v>0</v>
+      </c>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
+      </c>
+      <c r="AJ35">
+        <v>0</v>
+      </c>
+      <c r="AK35">
+        <v>0</v>
+      </c>
+      <c r="AL35">
+        <v>0</v>
+      </c>
+      <c r="AM35">
+        <v>0</v>
+      </c>
+      <c r="AN35">
+        <v>0</v>
+      </c>
+      <c r="AO35">
+        <v>0</v>
+      </c>
+      <c r="AP35">
+        <v>0</v>
+      </c>
+      <c r="AQ35">
+        <v>0</v>
+      </c>
+      <c r="AR35">
+        <v>0</v>
+      </c>
+      <c r="AS35">
+        <v>0</v>
+      </c>
+      <c r="AT35">
+        <v>0</v>
+      </c>
+      <c r="AU35">
+        <v>0</v>
+      </c>
+      <c r="AV35">
+        <v>0</v>
+      </c>
+      <c r="AW35">
+        <v>0</v>
+      </c>
+      <c r="AX35">
+        <v>0</v>
+      </c>
+      <c r="AY35">
+        <v>0</v>
+      </c>
+      <c r="AZ35">
+        <v>0</v>
+      </c>
+      <c r="BA35">
+        <v>0</v>
+      </c>
+      <c r="BB35">
+        <v>0</v>
+      </c>
+      <c r="BC35">
+        <v>0</v>
+      </c>
+      <c r="BD35">
         <v>0</v>
       </c>
     </row>
